--- a/Documents/Project_Planning.xlsx
+++ b/Documents/Project_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8EBF9-9BA5-4199-B4A8-630990EDDEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BA442-5E53-441B-8C9D-D72FF6474D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="delay">ProjectSchedule!$F$10</definedName>
     <definedName name="Display_Week">ProjectSchedule!$D$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$D$3</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>AA*, AS*</t>
+  </si>
+  <si>
+    <t>DELAY</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1035,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1212,9 +1219,10 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1272,7 +1280,218 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1432,15 +1651,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="totalRow" dxfId="32"/>
+      <tableStyleElement type="firstColumn" dxfId="31"/>
+      <tableStyleElement type="lastColumn" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1799,11 +2018,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DG40"/>
+  <dimension ref="A1:DH40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1813,78 +2032,79 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="12" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3" customWidth="1"/>
-    <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="3" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3" customWidth="1"/>
-    <col min="30" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3" customWidth="1"/>
-    <col min="47" max="47" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="3" customWidth="1"/>
-    <col min="51" max="51" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3" customWidth="1"/>
-    <col min="53" max="53" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="3" customWidth="1"/>
-    <col min="56" max="56" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="3" customWidth="1"/>
-    <col min="58" max="60" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3" customWidth="1"/>
-    <col min="68" max="68" width="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="73" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="3" customWidth="1"/>
-    <col min="78" max="78" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="3" customWidth="1"/>
-    <col min="82" max="82" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="3" customWidth="1"/>
-    <col min="84" max="84" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="3" customWidth="1"/>
-    <col min="87" max="87" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3" customWidth="1"/>
-    <col min="89" max="91" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="97" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="3" customWidth="1"/>
-    <col min="108" max="108" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="13" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="3" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3" customWidth="1"/>
+    <col min="26" max="26" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3" customWidth="1"/>
+    <col min="31" max="33" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3" customWidth="1"/>
+    <col min="48" max="48" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="3" customWidth="1"/>
+    <col min="52" max="52" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3" customWidth="1"/>
+    <col min="54" max="54" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="3" customWidth="1"/>
+    <col min="57" max="57" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3" customWidth="1"/>
+    <col min="59" max="61" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3" customWidth="1"/>
+    <col min="69" max="69" width="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="74" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="3" customWidth="1"/>
+    <col min="79" max="79" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="3" customWidth="1"/>
+    <col min="83" max="83" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="3" customWidth="1"/>
+    <col min="85" max="85" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="3" customWidth="1"/>
+    <col min="88" max="88" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="3" customWidth="1"/>
+    <col min="90" max="92" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="98" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="102" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="3" customWidth="1"/>
+    <col min="109" max="109" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="112" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:112" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1894,10 +2114,11 @@
       <c r="C1" s="23"/>
       <c r="D1" s="3"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:111" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:112" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1905,10 +2126,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="G2" s="32"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="32"/>
+      <c r="M2" s="56"/>
     </row>
-    <row r="3" spans="1:111" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:112" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -1922,8 +2143,9 @@
         <v>44958</v>
       </c>
       <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
-    <row r="4" spans="1:111" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:112" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1936,158 +2158,158 @@
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="60">
-        <f>G5</f>
+      <c r="H4" s="60">
+        <f>H5</f>
         <v>44956</v>
       </c>
-      <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="60">
-        <f>N5</f>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="60">
+        <f>O5</f>
         <v>44963</v>
       </c>
-      <c r="O4" s="61"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
       <c r="S4" s="61"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="60">
-        <f>U5</f>
+      <c r="T4" s="61"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="60">
+        <f>V5</f>
         <v>44970</v>
       </c>
-      <c r="V4" s="61"/>
       <c r="W4" s="61"/>
       <c r="X4" s="61"/>
       <c r="Y4" s="61"/>
       <c r="Z4" s="61"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="60">
-        <f>AB5</f>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="60">
+        <f>AC5</f>
         <v>44977</v>
       </c>
-      <c r="AC4" s="61"/>
       <c r="AD4" s="61"/>
       <c r="AE4" s="61"/>
       <c r="AF4" s="61"/>
       <c r="AG4" s="61"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="60">
-        <f>AI5</f>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="60">
+        <f>AJ5</f>
         <v>44984</v>
       </c>
-      <c r="AJ4" s="61"/>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
       <c r="AM4" s="61"/>
       <c r="AN4" s="61"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="60">
-        <f>AP5</f>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="60">
+        <f>AQ5</f>
         <v>44991</v>
       </c>
-      <c r="AQ4" s="61"/>
       <c r="AR4" s="61"/>
       <c r="AS4" s="61"/>
       <c r="AT4" s="61"/>
       <c r="AU4" s="61"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="60">
-        <f>AW5</f>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="60">
+        <f>AX5</f>
         <v>44998</v>
       </c>
-      <c r="AX4" s="61"/>
       <c r="AY4" s="61"/>
       <c r="AZ4" s="61"/>
       <c r="BA4" s="61"/>
       <c r="BB4" s="61"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="60">
-        <f t="shared" ref="BD4" si="0">BD5</f>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="60">
+        <f t="shared" ref="BE4" si="0">BE5</f>
         <v>45005</v>
       </c>
-      <c r="BE4" s="61"/>
       <c r="BF4" s="61"/>
       <c r="BG4" s="61"/>
       <c r="BH4" s="61"/>
       <c r="BI4" s="61"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="60">
-        <f t="shared" ref="BK4" si="1">BK5</f>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="60">
+        <f t="shared" ref="BL4" si="1">BL5</f>
         <v>45012</v>
       </c>
-      <c r="BL4" s="61"/>
       <c r="BM4" s="61"/>
       <c r="BN4" s="61"/>
       <c r="BO4" s="61"/>
       <c r="BP4" s="61"/>
-      <c r="BQ4" s="62"/>
-      <c r="BR4" s="60">
-        <f t="shared" ref="BR4" si="2">BR5</f>
+      <c r="BQ4" s="61"/>
+      <c r="BR4" s="62"/>
+      <c r="BS4" s="60">
+        <f t="shared" ref="BS4" si="2">BS5</f>
         <v>45019</v>
       </c>
-      <c r="BS4" s="61"/>
       <c r="BT4" s="61"/>
       <c r="BU4" s="61"/>
       <c r="BV4" s="61"/>
       <c r="BW4" s="61"/>
-      <c r="BX4" s="62"/>
-      <c r="BY4" s="60">
-        <f t="shared" ref="BY4" si="3">BY5</f>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="62"/>
+      <c r="BZ4" s="60">
+        <f t="shared" ref="BZ4" si="3">BZ5</f>
         <v>45026</v>
       </c>
-      <c r="BZ4" s="61"/>
       <c r="CA4" s="61"/>
       <c r="CB4" s="61"/>
       <c r="CC4" s="61"/>
       <c r="CD4" s="61"/>
-      <c r="CE4" s="62"/>
-      <c r="CF4" s="60">
-        <f t="shared" ref="CF4" si="4">CF5</f>
+      <c r="CE4" s="61"/>
+      <c r="CF4" s="62"/>
+      <c r="CG4" s="60">
+        <f t="shared" ref="CG4" si="4">CG5</f>
         <v>45033</v>
       </c>
-      <c r="CG4" s="61"/>
       <c r="CH4" s="61"/>
       <c r="CI4" s="61"/>
       <c r="CJ4" s="61"/>
       <c r="CK4" s="61"/>
-      <c r="CL4" s="62"/>
-      <c r="CM4" s="60">
-        <f t="shared" ref="CM4" si="5">CM5</f>
+      <c r="CL4" s="61"/>
+      <c r="CM4" s="62"/>
+      <c r="CN4" s="60">
+        <f t="shared" ref="CN4" si="5">CN5</f>
         <v>45040</v>
       </c>
-      <c r="CN4" s="61"/>
       <c r="CO4" s="61"/>
       <c r="CP4" s="61"/>
       <c r="CQ4" s="61"/>
       <c r="CR4" s="61"/>
-      <c r="CS4" s="62"/>
-      <c r="CT4" s="60">
-        <f t="shared" ref="CT4" si="6">CT5</f>
+      <c r="CS4" s="61"/>
+      <c r="CT4" s="62"/>
+      <c r="CU4" s="60">
+        <f t="shared" ref="CU4" si="6">CU5</f>
         <v>45047</v>
       </c>
-      <c r="CU4" s="61"/>
       <c r="CV4" s="61"/>
       <c r="CW4" s="61"/>
       <c r="CX4" s="61"/>
       <c r="CY4" s="61"/>
-      <c r="CZ4" s="62"/>
-      <c r="DA4" s="60">
-        <f t="shared" ref="DA4" si="7">DA5</f>
+      <c r="CZ4" s="61"/>
+      <c r="DA4" s="62"/>
+      <c r="DB4" s="60">
+        <f t="shared" ref="DB4" si="7">DB5</f>
         <v>45054</v>
       </c>
-      <c r="DB4" s="61"/>
       <c r="DC4" s="61"/>
       <c r="DD4" s="61"/>
       <c r="DE4" s="61"/>
       <c r="DF4" s="61"/>
-      <c r="DG4" s="62"/>
+      <c r="DG4" s="61"/>
+      <c r="DH4" s="62"/>
     </row>
-    <row r="5" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:112" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
@@ -2097,428 +2319,429 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
-      <c r="G5" s="48">
+      <c r="F5" s="66"/>
+      <c r="H5" s="48">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44956</v>
       </c>
-      <c r="H5" s="49">
-        <f>G5+1</f>
+      <c r="I5" s="49">
+        <f>H5+1</f>
         <v>44957</v>
       </c>
-      <c r="I5" s="49">
-        <f t="shared" ref="I5:AV5" si="8">H5+1</f>
+      <c r="J5" s="49">
+        <f t="shared" ref="J5:AW5" si="8">I5+1</f>
         <v>44958</v>
       </c>
-      <c r="J5" s="49">
+      <c r="K5" s="49">
         <f t="shared" si="8"/>
         <v>44959</v>
       </c>
-      <c r="K5" s="49">
+      <c r="L5" s="49">
         <f t="shared" si="8"/>
         <v>44960</v>
       </c>
-      <c r="L5" s="49">
+      <c r="M5" s="49">
         <f t="shared" si="8"/>
         <v>44961</v>
       </c>
-      <c r="M5" s="50">
+      <c r="N5" s="50">
         <f t="shared" si="8"/>
         <v>44962</v>
       </c>
-      <c r="N5" s="48">
-        <f>M5+1</f>
+      <c r="O5" s="48">
+        <f>N5+1</f>
         <v>44963</v>
       </c>
-      <c r="O5" s="49">
-        <f>N5+1</f>
+      <c r="P5" s="49">
+        <f>O5+1</f>
         <v>44964</v>
       </c>
-      <c r="P5" s="49">
+      <c r="Q5" s="49">
         <f t="shared" si="8"/>
         <v>44965</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="R5" s="49">
         <f t="shared" si="8"/>
         <v>44966</v>
       </c>
-      <c r="R5" s="49">
+      <c r="S5" s="49">
         <f t="shared" si="8"/>
         <v>44967</v>
       </c>
-      <c r="S5" s="49">
+      <c r="T5" s="49">
         <f t="shared" si="8"/>
         <v>44968</v>
       </c>
-      <c r="T5" s="50">
+      <c r="U5" s="50">
         <f t="shared" si="8"/>
         <v>44969</v>
       </c>
-      <c r="U5" s="48">
-        <f>T5+1</f>
+      <c r="V5" s="48">
+        <f>U5+1</f>
         <v>44970</v>
       </c>
-      <c r="V5" s="49">
-        <f>U5+1</f>
+      <c r="W5" s="49">
+        <f>V5+1</f>
         <v>44971</v>
       </c>
-      <c r="W5" s="49">
+      <c r="X5" s="49">
         <f t="shared" si="8"/>
         <v>44972</v>
       </c>
-      <c r="X5" s="49">
+      <c r="Y5" s="49">
         <f t="shared" si="8"/>
         <v>44973</v>
       </c>
-      <c r="Y5" s="49">
+      <c r="Z5" s="49">
         <f t="shared" si="8"/>
         <v>44974</v>
       </c>
-      <c r="Z5" s="49">
+      <c r="AA5" s="49">
         <f t="shared" si="8"/>
         <v>44975</v>
       </c>
-      <c r="AA5" s="50">
+      <c r="AB5" s="50">
         <f t="shared" si="8"/>
         <v>44976</v>
       </c>
-      <c r="AB5" s="48">
-        <f>AA5+1</f>
+      <c r="AC5" s="48">
+        <f>AB5+1</f>
         <v>44977</v>
       </c>
-      <c r="AC5" s="49">
-        <f>AB5+1</f>
+      <c r="AD5" s="49">
+        <f>AC5+1</f>
         <v>44978</v>
       </c>
-      <c r="AD5" s="49">
+      <c r="AE5" s="49">
         <f t="shared" si="8"/>
         <v>44979</v>
       </c>
-      <c r="AE5" s="49">
+      <c r="AF5" s="49">
         <f t="shared" si="8"/>
         <v>44980</v>
       </c>
-      <c r="AF5" s="49">
+      <c r="AG5" s="49">
         <f t="shared" si="8"/>
         <v>44981</v>
       </c>
-      <c r="AG5" s="49">
+      <c r="AH5" s="49">
         <f t="shared" si="8"/>
         <v>44982</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AI5" s="50">
         <f t="shared" si="8"/>
         <v>44983</v>
       </c>
-      <c r="AI5" s="48">
-        <f>AH5+1</f>
+      <c r="AJ5" s="48">
+        <f>AI5+1</f>
         <v>44984</v>
       </c>
-      <c r="AJ5" s="49">
-        <f>AI5+1</f>
+      <c r="AK5" s="49">
+        <f>AJ5+1</f>
         <v>44985</v>
       </c>
-      <c r="AK5" s="49">
+      <c r="AL5" s="49">
         <f t="shared" si="8"/>
         <v>44986</v>
       </c>
-      <c r="AL5" s="49">
+      <c r="AM5" s="49">
         <f t="shared" si="8"/>
         <v>44987</v>
       </c>
-      <c r="AM5" s="49">
+      <c r="AN5" s="49">
         <f t="shared" si="8"/>
         <v>44988</v>
       </c>
-      <c r="AN5" s="49">
+      <c r="AO5" s="49">
         <f t="shared" si="8"/>
         <v>44989</v>
       </c>
-      <c r="AO5" s="50">
+      <c r="AP5" s="50">
         <f t="shared" si="8"/>
         <v>44990</v>
       </c>
-      <c r="AP5" s="48">
-        <f>AO5+1</f>
+      <c r="AQ5" s="48">
+        <f>AP5+1</f>
         <v>44991</v>
       </c>
-      <c r="AQ5" s="49">
-        <f>AP5+1</f>
+      <c r="AR5" s="49">
+        <f>AQ5+1</f>
         <v>44992</v>
       </c>
-      <c r="AR5" s="49">
+      <c r="AS5" s="49">
         <f t="shared" si="8"/>
         <v>44993</v>
       </c>
-      <c r="AS5" s="49">
+      <c r="AT5" s="49">
         <f t="shared" si="8"/>
         <v>44994</v>
       </c>
-      <c r="AT5" s="49">
+      <c r="AU5" s="49">
         <f t="shared" si="8"/>
         <v>44995</v>
       </c>
-      <c r="AU5" s="49">
+      <c r="AV5" s="49">
         <f t="shared" si="8"/>
         <v>44996</v>
       </c>
-      <c r="AV5" s="50">
+      <c r="AW5" s="50">
         <f t="shared" si="8"/>
         <v>44997</v>
       </c>
-      <c r="AW5" s="48">
-        <f>AV5+1</f>
+      <c r="AX5" s="48">
+        <f>AW5+1</f>
         <v>44998</v>
       </c>
-      <c r="AX5" s="49">
-        <f>AW5+1</f>
+      <c r="AY5" s="49">
+        <f>AX5+1</f>
         <v>44999</v>
       </c>
-      <c r="AY5" s="49">
-        <f t="shared" ref="AY5:BC5" si="9">AX5+1</f>
+      <c r="AZ5" s="49">
+        <f t="shared" ref="AZ5:BD5" si="9">AY5+1</f>
         <v>45000</v>
       </c>
-      <c r="AZ5" s="49">
+      <c r="BA5" s="49">
         <f t="shared" si="9"/>
         <v>45001</v>
       </c>
-      <c r="BA5" s="49">
+      <c r="BB5" s="49">
         <f t="shared" si="9"/>
         <v>45002</v>
       </c>
-      <c r="BB5" s="49">
+      <c r="BC5" s="49">
         <f t="shared" si="9"/>
         <v>45003</v>
       </c>
-      <c r="BC5" s="50">
+      <c r="BD5" s="50">
         <f t="shared" si="9"/>
         <v>45004</v>
       </c>
-      <c r="BD5" s="48">
-        <f>BC5+1</f>
+      <c r="BE5" s="48">
+        <f>BD5+1</f>
         <v>45005</v>
       </c>
-      <c r="BE5" s="49">
-        <f>BD5+1</f>
+      <c r="BF5" s="49">
+        <f>BE5+1</f>
         <v>45006</v>
       </c>
-      <c r="BF5" s="49">
-        <f t="shared" ref="BF5:BK5" si="10">BE5+1</f>
+      <c r="BG5" s="49">
+        <f t="shared" ref="BG5:BL5" si="10">BF5+1</f>
         <v>45007</v>
       </c>
-      <c r="BG5" s="49">
+      <c r="BH5" s="49">
         <f t="shared" si="10"/>
         <v>45008</v>
       </c>
-      <c r="BH5" s="49">
+      <c r="BI5" s="49">
         <f t="shared" si="10"/>
         <v>45009</v>
       </c>
-      <c r="BI5" s="49">
+      <c r="BJ5" s="49">
         <f t="shared" si="10"/>
         <v>45010</v>
       </c>
-      <c r="BJ5" s="50">
+      <c r="BK5" s="50">
         <f t="shared" si="10"/>
         <v>45011</v>
       </c>
-      <c r="BK5" s="50">
+      <c r="BL5" s="50">
         <f t="shared" si="10"/>
         <v>45012</v>
       </c>
-      <c r="BL5" s="50">
-        <f t="shared" ref="BL5" si="11">BK5+1</f>
+      <c r="BM5" s="50">
+        <f t="shared" ref="BM5" si="11">BL5+1</f>
         <v>45013</v>
       </c>
-      <c r="BM5" s="50">
-        <f t="shared" ref="BM5" si="12">BL5+1</f>
+      <c r="BN5" s="50">
+        <f t="shared" ref="BN5" si="12">BM5+1</f>
         <v>45014</v>
       </c>
-      <c r="BN5" s="50">
-        <f t="shared" ref="BN5" si="13">BM5+1</f>
+      <c r="BO5" s="50">
+        <f t="shared" ref="BO5" si="13">BN5+1</f>
         <v>45015</v>
       </c>
-      <c r="BO5" s="50">
-        <f t="shared" ref="BO5" si="14">BN5+1</f>
+      <c r="BP5" s="50">
+        <f t="shared" ref="BP5" si="14">BO5+1</f>
         <v>45016</v>
       </c>
-      <c r="BP5" s="50">
-        <f t="shared" ref="BP5" si="15">BO5+1</f>
+      <c r="BQ5" s="50">
+        <f t="shared" ref="BQ5" si="15">BP5+1</f>
         <v>45017</v>
       </c>
-      <c r="BQ5" s="50">
-        <f t="shared" ref="BQ5" si="16">BP5+1</f>
+      <c r="BR5" s="50">
+        <f t="shared" ref="BR5" si="16">BQ5+1</f>
         <v>45018</v>
       </c>
-      <c r="BR5" s="50">
-        <f t="shared" ref="BR5" si="17">BQ5+1</f>
+      <c r="BS5" s="50">
+        <f t="shared" ref="BS5" si="17">BR5+1</f>
         <v>45019</v>
       </c>
-      <c r="BS5" s="50">
-        <f t="shared" ref="BS5" si="18">BR5+1</f>
+      <c r="BT5" s="50">
+        <f t="shared" ref="BT5" si="18">BS5+1</f>
         <v>45020</v>
       </c>
-      <c r="BT5" s="50">
-        <f t="shared" ref="BT5" si="19">BS5+1</f>
+      <c r="BU5" s="50">
+        <f t="shared" ref="BU5" si="19">BT5+1</f>
         <v>45021</v>
       </c>
-      <c r="BU5" s="50">
-        <f t="shared" ref="BU5" si="20">BT5+1</f>
+      <c r="BV5" s="50">
+        <f t="shared" ref="BV5" si="20">BU5+1</f>
         <v>45022</v>
       </c>
-      <c r="BV5" s="50">
-        <f t="shared" ref="BV5" si="21">BU5+1</f>
+      <c r="BW5" s="50">
+        <f t="shared" ref="BW5" si="21">BV5+1</f>
         <v>45023</v>
       </c>
-      <c r="BW5" s="50">
-        <f t="shared" ref="BW5" si="22">BV5+1</f>
+      <c r="BX5" s="50">
+        <f t="shared" ref="BX5" si="22">BW5+1</f>
         <v>45024</v>
       </c>
-      <c r="BX5" s="50">
-        <f t="shared" ref="BX5" si="23">BW5+1</f>
+      <c r="BY5" s="50">
+        <f t="shared" ref="BY5" si="23">BX5+1</f>
         <v>45025</v>
       </c>
-      <c r="BY5" s="50">
-        <f t="shared" ref="BY5" si="24">BX5+1</f>
+      <c r="BZ5" s="50">
+        <f t="shared" ref="BZ5" si="24">BY5+1</f>
         <v>45026</v>
       </c>
-      <c r="BZ5" s="50">
-        <f t="shared" ref="BZ5" si="25">BY5+1</f>
+      <c r="CA5" s="50">
+        <f t="shared" ref="CA5" si="25">BZ5+1</f>
         <v>45027</v>
       </c>
-      <c r="CA5" s="50">
-        <f t="shared" ref="CA5" si="26">BZ5+1</f>
+      <c r="CB5" s="50">
+        <f t="shared" ref="CB5" si="26">CA5+1</f>
         <v>45028</v>
       </c>
-      <c r="CB5" s="50">
-        <f t="shared" ref="CB5" si="27">CA5+1</f>
+      <c r="CC5" s="50">
+        <f t="shared" ref="CC5" si="27">CB5+1</f>
         <v>45029</v>
       </c>
-      <c r="CC5" s="50">
-        <f t="shared" ref="CC5" si="28">CB5+1</f>
+      <c r="CD5" s="50">
+        <f t="shared" ref="CD5" si="28">CC5+1</f>
         <v>45030</v>
       </c>
-      <c r="CD5" s="50">
-        <f t="shared" ref="CD5" si="29">CC5+1</f>
+      <c r="CE5" s="50">
+        <f t="shared" ref="CE5" si="29">CD5+1</f>
         <v>45031</v>
       </c>
-      <c r="CE5" s="50">
-        <f t="shared" ref="CE5" si="30">CD5+1</f>
+      <c r="CF5" s="50">
+        <f t="shared" ref="CF5" si="30">CE5+1</f>
         <v>45032</v>
       </c>
-      <c r="CF5" s="50">
-        <f t="shared" ref="CF5" si="31">CE5+1</f>
+      <c r="CG5" s="50">
+        <f t="shared" ref="CG5" si="31">CF5+1</f>
         <v>45033</v>
       </c>
-      <c r="CG5" s="50">
-        <f t="shared" ref="CG5" si="32">CF5+1</f>
+      <c r="CH5" s="50">
+        <f t="shared" ref="CH5" si="32">CG5+1</f>
         <v>45034</v>
       </c>
-      <c r="CH5" s="50">
-        <f t="shared" ref="CH5" si="33">CG5+1</f>
+      <c r="CI5" s="50">
+        <f t="shared" ref="CI5" si="33">CH5+1</f>
         <v>45035</v>
       </c>
-      <c r="CI5" s="50">
-        <f t="shared" ref="CI5" si="34">CH5+1</f>
+      <c r="CJ5" s="50">
+        <f t="shared" ref="CJ5" si="34">CI5+1</f>
         <v>45036</v>
       </c>
-      <c r="CJ5" s="50">
-        <f t="shared" ref="CJ5" si="35">CI5+1</f>
+      <c r="CK5" s="50">
+        <f t="shared" ref="CK5" si="35">CJ5+1</f>
         <v>45037</v>
       </c>
-      <c r="CK5" s="50">
-        <f t="shared" ref="CK5" si="36">CJ5+1</f>
+      <c r="CL5" s="50">
+        <f t="shared" ref="CL5" si="36">CK5+1</f>
         <v>45038</v>
       </c>
-      <c r="CL5" s="50">
-        <f t="shared" ref="CL5" si="37">CK5+1</f>
+      <c r="CM5" s="50">
+        <f t="shared" ref="CM5" si="37">CL5+1</f>
         <v>45039</v>
       </c>
-      <c r="CM5" s="50">
-        <f t="shared" ref="CM5" si="38">CL5+1</f>
+      <c r="CN5" s="50">
+        <f t="shared" ref="CN5" si="38">CM5+1</f>
         <v>45040</v>
       </c>
-      <c r="CN5" s="50">
-        <f t="shared" ref="CN5" si="39">CM5+1</f>
+      <c r="CO5" s="50">
+        <f t="shared" ref="CO5" si="39">CN5+1</f>
         <v>45041</v>
       </c>
-      <c r="CO5" s="50">
-        <f t="shared" ref="CO5" si="40">CN5+1</f>
+      <c r="CP5" s="50">
+        <f t="shared" ref="CP5" si="40">CO5+1</f>
         <v>45042</v>
       </c>
-      <c r="CP5" s="50">
-        <f t="shared" ref="CP5" si="41">CO5+1</f>
+      <c r="CQ5" s="50">
+        <f t="shared" ref="CQ5" si="41">CP5+1</f>
         <v>45043</v>
       </c>
-      <c r="CQ5" s="50">
-        <f t="shared" ref="CQ5" si="42">CP5+1</f>
+      <c r="CR5" s="50">
+        <f t="shared" ref="CR5" si="42">CQ5+1</f>
         <v>45044</v>
       </c>
-      <c r="CR5" s="50">
-        <f t="shared" ref="CR5" si="43">CQ5+1</f>
+      <c r="CS5" s="50">
+        <f t="shared" ref="CS5" si="43">CR5+1</f>
         <v>45045</v>
       </c>
-      <c r="CS5" s="50">
-        <f t="shared" ref="CS5" si="44">CR5+1</f>
+      <c r="CT5" s="50">
+        <f t="shared" ref="CT5" si="44">CS5+1</f>
         <v>45046</v>
       </c>
-      <c r="CT5" s="50">
-        <f t="shared" ref="CT5" si="45">CS5+1</f>
+      <c r="CU5" s="50">
+        <f t="shared" ref="CU5" si="45">CT5+1</f>
         <v>45047</v>
       </c>
-      <c r="CU5" s="50">
-        <f t="shared" ref="CU5" si="46">CT5+1</f>
+      <c r="CV5" s="50">
+        <f t="shared" ref="CV5" si="46">CU5+1</f>
         <v>45048</v>
       </c>
-      <c r="CV5" s="50">
-        <f t="shared" ref="CV5" si="47">CU5+1</f>
+      <c r="CW5" s="50">
+        <f t="shared" ref="CW5" si="47">CV5+1</f>
         <v>45049</v>
       </c>
-      <c r="CW5" s="50">
-        <f t="shared" ref="CW5" si="48">CV5+1</f>
+      <c r="CX5" s="50">
+        <f t="shared" ref="CX5" si="48">CW5+1</f>
         <v>45050</v>
       </c>
-      <c r="CX5" s="50">
-        <f t="shared" ref="CX5" si="49">CW5+1</f>
+      <c r="CY5" s="50">
+        <f t="shared" ref="CY5" si="49">CX5+1</f>
         <v>45051</v>
       </c>
-      <c r="CY5" s="50">
-        <f t="shared" ref="CY5" si="50">CX5+1</f>
+      <c r="CZ5" s="50">
+        <f t="shared" ref="CZ5" si="50">CY5+1</f>
         <v>45052</v>
       </c>
-      <c r="CZ5" s="50">
-        <f t="shared" ref="CZ5" si="51">CY5+1</f>
+      <c r="DA5" s="50">
+        <f t="shared" ref="DA5" si="51">CZ5+1</f>
         <v>45053</v>
       </c>
-      <c r="DA5" s="50">
-        <f t="shared" ref="DA5" si="52">CZ5+1</f>
+      <c r="DB5" s="50">
+        <f t="shared" ref="DB5" si="52">DA5+1</f>
         <v>45054</v>
       </c>
-      <c r="DB5" s="50">
-        <f t="shared" ref="DB5" si="53">DA5+1</f>
+      <c r="DC5" s="50">
+        <f t="shared" ref="DC5" si="53">DB5+1</f>
         <v>45055</v>
       </c>
-      <c r="DC5" s="50">
-        <f t="shared" ref="DC5" si="54">DB5+1</f>
+      <c r="DD5" s="50">
+        <f t="shared" ref="DD5" si="54">DC5+1</f>
         <v>45056</v>
       </c>
-      <c r="DD5" s="50">
-        <f t="shared" ref="DD5" si="55">DC5+1</f>
+      <c r="DE5" s="50">
+        <f t="shared" ref="DE5" si="55">DD5+1</f>
         <v>45057</v>
       </c>
-      <c r="DE5" s="50">
-        <f t="shared" ref="DE5" si="56">DD5+1</f>
+      <c r="DF5" s="50">
+        <f t="shared" ref="DF5" si="56">DE5+1</f>
         <v>45058</v>
       </c>
-      <c r="DF5" s="50">
-        <f t="shared" ref="DF5" si="57">DE5+1</f>
+      <c r="DG5" s="50">
+        <f t="shared" ref="DG5" si="57">DF5+1</f>
         <v>45059</v>
       </c>
-      <c r="DG5" s="50">
-        <f t="shared" ref="DG5" si="58">DF5+1</f>
+      <c r="DH5" s="50">
+        <f t="shared" ref="DH5" si="58">DG5+1</f>
         <v>45060</v>
       </c>
     </row>
-    <row r="6" spans="1:111" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -2535,31 +2758,30 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="8" t="str">
-        <f t="shared" ref="G6" si="59">LEFT(TEXT(G5,"ddd"),1)</f>
+      <c r="H6" s="8" t="str">
+        <f t="shared" ref="H6" si="59">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="H6" s="8" t="str">
-        <f t="shared" ref="H6:AP6" si="60">LEFT(TEXT(H5,"ddd"),1)</f>
+      <c r="I6" s="8" t="str">
+        <f t="shared" ref="I6:AQ6" si="60">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="J6" s="8" t="str">
         <f t="shared" si="60"/>
         <v>W</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="K6" s="8" t="str">
         <f t="shared" si="60"/>
         <v>T</v>
       </c>
-      <c r="K6" s="8" t="str">
+      <c r="L6" s="8" t="str">
         <f t="shared" si="60"/>
         <v>F</v>
-      </c>
-      <c r="L6" s="8" t="str">
-        <f t="shared" si="60"/>
-        <v>S</v>
       </c>
       <c r="M6" s="8" t="str">
         <f t="shared" si="60"/>
@@ -2567,27 +2789,27 @@
       </c>
       <c r="N6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="P6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="R6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="S6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="T6" s="8" t="str">
         <f t="shared" si="60"/>
@@ -2595,27 +2817,27 @@
       </c>
       <c r="U6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="V6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="W6" s="8" t="str">
-        <f>LEFT(TEXT(W5,"ddd"),1)</f>
-        <v>W</v>
-      </c>
-      <c r="X6" s="8" t="str">
         <f t="shared" si="60"/>
         <v>T</v>
       </c>
+      <c r="X6" s="8" t="str">
+        <f>LEFT(TEXT(X5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
       <c r="Y6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="Z6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AA6" s="8" t="str">
         <f t="shared" si="60"/>
@@ -2623,27 +2845,27 @@
       </c>
       <c r="AB6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AC6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AD6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AF6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AG6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AH6" s="8" t="str">
         <f t="shared" si="60"/>
@@ -2651,27 +2873,27 @@
       </c>
       <c r="AI6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AJ6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AK6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AM6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AN6" s="8" t="str">
         <f t="shared" si="60"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AO6" s="8" t="str">
         <f t="shared" si="60"/>
@@ -2679,27 +2901,27 @@
       </c>
       <c r="AP6" s="8" t="str">
         <f t="shared" si="60"/>
+        <v>S</v>
+      </c>
+      <c r="AQ6" s="8" t="str">
+        <f t="shared" si="60"/>
         <v>M</v>
       </c>
-      <c r="AQ6" s="8" t="str">
-        <f t="shared" ref="AQ6:DB6" si="61">LEFT(TEXT(AQ5,"ddd"),1)</f>
+      <c r="AR6" s="8" t="str">
+        <f t="shared" ref="AR6:DC6" si="61">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AR6" s="8" t="str">
+      <c r="AS6" s="8" t="str">
         <f t="shared" si="61"/>
         <v>W</v>
       </c>
-      <c r="AS6" s="8" t="str">
+      <c r="AT6" s="8" t="str">
         <f t="shared" si="61"/>
         <v>T</v>
       </c>
-      <c r="AT6" s="8" t="str">
+      <c r="AU6" s="8" t="str">
         <f t="shared" si="61"/>
         <v>F</v>
-      </c>
-      <c r="AU6" s="8" t="str">
-        <f t="shared" si="61"/>
-        <v>S</v>
       </c>
       <c r="AV6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2707,27 +2929,27 @@
       </c>
       <c r="AW6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AX6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AY6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BA6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BB6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BC6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2735,27 +2957,27 @@
       </c>
       <c r="BD6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BE6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BF6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BH6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BI6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BJ6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2763,27 +2985,27 @@
       </c>
       <c r="BK6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BL6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BM6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BO6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BP6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BQ6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2791,27 +3013,27 @@
       </c>
       <c r="BR6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BS6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BT6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BU6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BV6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BW6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BX6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2819,27 +3041,27 @@
       </c>
       <c r="BY6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BZ6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="CA6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="CB6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="CC6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="CD6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="CE6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2847,27 +3069,27 @@
       </c>
       <c r="CF6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="CG6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="CH6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="CI6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="CJ6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="CK6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="CL6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2875,27 +3097,27 @@
       </c>
       <c r="CM6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="CN6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="CO6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="CP6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="CQ6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="CR6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="CS6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2903,27 +3125,27 @@
       </c>
       <c r="CT6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="CU6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="CV6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="CW6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="CX6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="CY6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="CZ6" s="8" t="str">
         <f t="shared" si="61"/>
@@ -2931,43 +3153,46 @@
       </c>
       <c r="DA6" s="8" t="str">
         <f t="shared" si="61"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="DB6" s="8" t="str">
         <f t="shared" si="61"/>
+        <v>M</v>
+      </c>
+      <c r="DC6" s="8" t="str">
+        <f t="shared" si="61"/>
         <v>T</v>
       </c>
-      <c r="DC6" s="8" t="str">
-        <f t="shared" ref="DC6:DG6" si="62">LEFT(TEXT(DC5,"ddd"),1)</f>
+      <c r="DD6" s="8" t="str">
+        <f t="shared" ref="DD6:DH6" si="62">LEFT(TEXT(DD5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="DD6" s="8" t="str">
+      <c r="DE6" s="8" t="str">
         <f t="shared" si="62"/>
         <v>T</v>
       </c>
-      <c r="DE6" s="8" t="str">
+      <c r="DF6" s="8" t="str">
         <f t="shared" si="62"/>
         <v>F</v>
-      </c>
-      <c r="DF6" s="8" t="str">
-        <f t="shared" si="62"/>
-        <v>S</v>
       </c>
       <c r="DG6" s="8" t="str">
         <f t="shared" si="62"/>
         <v>S</v>
       </c>
+      <c r="DH6" s="8" t="str">
+        <f t="shared" si="62"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:111" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D7"/>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -3023,8 +3248,9 @@
       <c r="BH7" s="16"/>
       <c r="BI7" s="16"/>
       <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
     </row>
-    <row r="8" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
@@ -3034,11 +3260,11 @@
       <c r="C8" s="10"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="9" t="str">
-        <f t="shared" ref="F8:F38" si="63">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="F8" s="34"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" ref="G8:G38" si="63">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -3143,8 +3369,9 @@
       <c r="DE8" s="16"/>
       <c r="DF8" s="16"/>
       <c r="DG8" s="16"/>
+      <c r="DH8" s="16"/>
     </row>
-    <row r="9" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
@@ -3160,11 +3387,13 @@
       <c r="E9" s="35">
         <v>44983</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="9">
         <f t="shared" si="63"/>
         <v>12</v>
       </c>
-      <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -3180,8 +3409,8 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="53"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53"/>
       <c r="AA9" s="53"/>
@@ -3191,7 +3420,7 @@
       <c r="AE9" s="53"/>
       <c r="AF9" s="53"/>
       <c r="AG9" s="53"/>
-      <c r="AH9" s="16"/>
+      <c r="AH9" s="53"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
@@ -3269,8 +3498,9 @@
       <c r="DE9" s="16"/>
       <c r="DF9" s="16"/>
       <c r="DG9" s="16"/>
+      <c r="DH9" s="16"/>
     </row>
-    <row r="10" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="57" t="s">
         <v>39</v>
@@ -3284,11 +3514,13 @@
       <c r="E10" s="35">
         <v>44972</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="35">
+        <v>44980</v>
+      </c>
+      <c r="G10" s="9">
         <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -3304,18 +3536,18 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="53"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
       <c r="AE10" s="53"/>
       <c r="AF10" s="53"/>
       <c r="AG10" s="53"/>
-      <c r="AH10" s="16"/>
+      <c r="AH10" s="53"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
@@ -3393,8 +3625,9 @@
       <c r="DE10" s="16"/>
       <c r="DF10" s="16"/>
       <c r="DG10" s="16"/>
+      <c r="DH10" s="16"/>
     </row>
-    <row r="11" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -3410,11 +3643,13 @@
       <c r="E11" s="35">
         <v>44982</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
       </c>
-      <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -3426,9 +3661,9 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
+      <c r="S11" s="16"/>
       <c r="T11" s="17"/>
-      <c r="U11" s="16"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
@@ -3519,8 +3754,9 @@
       <c r="DE11" s="16"/>
       <c r="DF11" s="16"/>
       <c r="DG11" s="16"/>
+      <c r="DH11" s="16"/>
     </row>
-    <row r="12" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="25" t="s">
         <v>28</v>
@@ -3534,11 +3770,13 @@
       <c r="E12" s="35">
         <v>44982</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
       </c>
-      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -3554,8 +3792,8 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
@@ -3643,8 +3881,9 @@
       <c r="DE12" s="16"/>
       <c r="DF12" s="16"/>
       <c r="DG12" s="16"/>
+      <c r="DH12" s="16"/>
     </row>
-    <row r="13" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="25" t="s">
         <v>29</v>
@@ -3658,11 +3897,13 @@
       <c r="E13" s="35">
         <v>44982</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
       </c>
-      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -3767,8 +4008,9 @@
       <c r="DE13" s="16"/>
       <c r="DF13" s="16"/>
       <c r="DG13" s="16"/>
+      <c r="DH13" s="16"/>
     </row>
-    <row r="14" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="25" t="s">
         <v>25</v>
@@ -3783,11 +4025,13 @@
         <f>D14+4</f>
         <v>44983</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9">
         <f t="shared" si="63"/>
         <v>5</v>
       </c>
-      <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -3892,8 +4136,9 @@
       <c r="DE14" s="16"/>
       <c r="DF14" s="16"/>
       <c r="DG14" s="16"/>
+      <c r="DH14" s="16"/>
     </row>
-    <row r="15" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="25" t="s">
         <v>55</v>
@@ -3907,11 +4152,13 @@
       <c r="E15" s="35">
         <v>44985</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -4016,8 +4263,9 @@
       <c r="DE15" s="16"/>
       <c r="DF15" s="16"/>
       <c r="DG15" s="16"/>
+      <c r="DH15" s="16"/>
     </row>
-    <row r="16" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
@@ -4027,11 +4275,11 @@
       <c r="C16" s="11"/>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="9" t="str">
+      <c r="F16" s="37"/>
+      <c r="G16" s="9" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -4136,8 +4384,9 @@
       <c r="DE16" s="16"/>
       <c r="DF16" s="16"/>
       <c r="DG16" s="16"/>
+      <c r="DH16" s="16"/>
     </row>
-    <row r="17" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="26" t="s">
         <v>27</v>
@@ -4151,11 +4400,13 @@
       <c r="E17" s="38">
         <v>44991</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -4260,8 +4511,9 @@
       <c r="DE17" s="16"/>
       <c r="DF17" s="16"/>
       <c r="DG17" s="16"/>
+      <c r="DH17" s="16"/>
     </row>
-    <row r="18" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="26" t="s">
         <v>48</v>
@@ -4273,11 +4525,13 @@
       <c r="E18" s="38">
         <v>44997</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="63"/>
         <v>8</v>
       </c>
-      <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -4289,9 +4543,9 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="17"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
@@ -4382,8 +4636,9 @@
       <c r="DE18" s="16"/>
       <c r="DF18" s="16"/>
       <c r="DG18" s="16"/>
+      <c r="DH18" s="16"/>
     </row>
-    <row r="19" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="26" t="s">
         <v>49</v>
@@ -4395,11 +4650,13 @@
       <c r="E19" s="38">
         <v>45004</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="63"/>
         <v>10</v>
       </c>
-      <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -4504,8 +4761,9 @@
       <c r="DE19" s="16"/>
       <c r="DF19" s="16"/>
       <c r="DG19" s="16"/>
+      <c r="DH19" s="16"/>
     </row>
-    <row r="20" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="26" t="s">
         <v>45</v>
@@ -4518,11 +4776,13 @@
       <c r="E20" s="38">
         <v>45007</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="9">
         <f t="shared" si="63"/>
         <v>13</v>
       </c>
-      <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
@@ -4538,8 +4798,8 @@
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="17"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
@@ -4627,8 +4887,9 @@
       <c r="DE20" s="16"/>
       <c r="DF20" s="16"/>
       <c r="DG20" s="16"/>
+      <c r="DH20" s="16"/>
     </row>
-    <row r="21" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="26" t="s">
         <v>50</v>
@@ -4640,11 +4901,13 @@
       <c r="E21" s="38">
         <v>45009</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -4749,8 +5012,9 @@
       <c r="DE21" s="16"/>
       <c r="DF21" s="16"/>
       <c r="DG21" s="16"/>
+      <c r="DH21" s="16"/>
     </row>
-    <row r="22" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="26" t="s">
         <v>51</v>
@@ -4762,8 +5026,10 @@
       <c r="E22" s="38">
         <v>45016</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="9"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -4868,8 +5134,9 @@
       <c r="DE22" s="16"/>
       <c r="DF22" s="16"/>
       <c r="DG22" s="16"/>
+      <c r="DH22" s="16"/>
     </row>
-    <row r="23" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="26" t="s">
         <v>52</v>
@@ -4881,8 +5148,10 @@
       <c r="E23" s="38">
         <v>45016</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
@@ -4987,8 +5256,9 @@
       <c r="DE23" s="16"/>
       <c r="DF23" s="16"/>
       <c r="DG23" s="16"/>
+      <c r="DH23" s="16"/>
     </row>
-    <row r="24" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>11</v>
       </c>
@@ -4998,11 +5268,11 @@
       <c r="C24" s="12"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="40"/>
+      <c r="G24" s="9" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -5107,8 +5377,9 @@
       <c r="DE24" s="16"/>
       <c r="DF24" s="16"/>
       <c r="DG24" s="16"/>
+      <c r="DH24" s="16"/>
     </row>
-    <row r="25" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="55" t="s">
         <v>36</v>
@@ -5120,11 +5391,13 @@
       <c r="E25" s="41">
         <v>45016</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="9">
         <f t="shared" si="63"/>
         <v>27</v>
       </c>
-      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -5229,8 +5502,9 @@
       <c r="DE25" s="16"/>
       <c r="DF25" s="16"/>
       <c r="DG25" s="16"/>
+      <c r="DH25" s="16"/>
     </row>
-    <row r="26" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="27" t="s">
         <v>32</v>
@@ -5242,11 +5516,13 @@
       <c r="E26" s="41">
         <v>45038</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -5351,8 +5627,9 @@
       <c r="DE26" s="16"/>
       <c r="DF26" s="16"/>
       <c r="DG26" s="16"/>
+      <c r="DH26" s="16"/>
     </row>
-    <row r="27" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="27" t="s">
         <v>31</v>
@@ -5364,11 +5641,13 @@
       <c r="E27" s="41">
         <v>45038</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -5473,8 +5752,9 @@
       <c r="DE27" s="16"/>
       <c r="DF27" s="16"/>
       <c r="DG27" s="16"/>
+      <c r="DH27" s="16"/>
     </row>
-    <row r="28" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="55" t="s">
         <v>37</v>
@@ -5486,11 +5766,13 @@
       <c r="E28" s="41">
         <v>45023</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="63"/>
         <v>7</v>
       </c>
-      <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -5595,8 +5877,9 @@
       <c r="DE28" s="16"/>
       <c r="DF28" s="16"/>
       <c r="DG28" s="16"/>
+      <c r="DH28" s="16"/>
     </row>
-    <row r="29" spans="1:111" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:112" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="27" t="s">
         <v>15</v>
@@ -5610,11 +5893,11 @@
         <f>D29+4</f>
         <v>45028</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="41"/>
+      <c r="G29" s="9">
         <f t="shared" si="63"/>
         <v>5</v>
       </c>
-      <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
@@ -5719,8 +6002,9 @@
       <c r="DE29" s="16"/>
       <c r="DF29" s="16"/>
       <c r="DG29" s="16"/>
+      <c r="DH29" s="16"/>
     </row>
-    <row r="30" spans="1:111" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="27" t="s">
         <v>16</v>
@@ -5734,11 +6018,11 @@
         <f>D30+4</f>
         <v>45021</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="41"/>
+      <c r="G30" s="9">
         <f t="shared" si="63"/>
         <v>5</v>
       </c>
-      <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -5843,8 +6127,9 @@
       <c r="DE30" s="16"/>
       <c r="DF30" s="16"/>
       <c r="DG30" s="16"/>
+      <c r="DH30" s="16"/>
     </row>
-    <row r="31" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>11</v>
       </c>
@@ -5854,11 +6139,11 @@
       <c r="C31" s="13"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="9" t="str">
+      <c r="F31" s="43"/>
+      <c r="G31" s="9" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -5963,8 +6248,9 @@
       <c r="DE31" s="16"/>
       <c r="DF31" s="16"/>
       <c r="DG31" s="16"/>
+      <c r="DH31" s="16"/>
     </row>
-    <row r="32" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="28" t="s">
         <v>33</v>
@@ -5978,11 +6264,13 @@
       <c r="E32" s="44">
         <v>45041</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="9">
         <f t="shared" si="63"/>
         <v>54</v>
       </c>
-      <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -6051,7 +6339,7 @@
       <c r="BU32" s="16"/>
       <c r="BV32" s="16"/>
       <c r="BW32" s="16"/>
-      <c r="BX32" s="54"/>
+      <c r="BX32" s="16"/>
       <c r="BY32" s="54"/>
       <c r="BZ32" s="54"/>
       <c r="CA32" s="54"/>
@@ -6059,7 +6347,7 @@
       <c r="CC32" s="54"/>
       <c r="CD32" s="54"/>
       <c r="CE32" s="54"/>
-      <c r="CF32" s="16"/>
+      <c r="CF32" s="54"/>
       <c r="CG32" s="16"/>
       <c r="CH32" s="16"/>
       <c r="CI32" s="16"/>
@@ -6087,8 +6375,9 @@
       <c r="DE32" s="16"/>
       <c r="DF32" s="16"/>
       <c r="DG32" s="16"/>
+      <c r="DH32" s="16"/>
     </row>
-    <row r="33" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="28" t="s">
         <v>43</v>
@@ -6102,11 +6391,13 @@
       <c r="E33" s="44">
         <v>45055</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="9">
         <f t="shared" si="63"/>
         <v>17</v>
       </c>
-      <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -6211,8 +6502,9 @@
       <c r="DE33" s="16"/>
       <c r="DF33" s="16"/>
       <c r="DG33" s="16"/>
+      <c r="DH33" s="16"/>
     </row>
-    <row r="34" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="28" t="s">
         <v>34</v>
@@ -6226,11 +6518,13 @@
       <c r="E34" s="44">
         <v>45051</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="9">
         <f t="shared" si="63"/>
         <v>4</v>
       </c>
-      <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -6335,8 +6629,9 @@
       <c r="DE34" s="16"/>
       <c r="DF34" s="16"/>
       <c r="DG34" s="16"/>
+      <c r="DH34" s="16"/>
     </row>
-    <row r="35" spans="1:111" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:112" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="28" t="s">
         <v>15</v>
@@ -6348,11 +6643,11 @@
       <c r="E35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="9" t="e">
+      <c r="F35" s="44"/>
+      <c r="G35" s="9" t="e">
         <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -6457,8 +6752,9 @@
       <c r="DE35" s="16"/>
       <c r="DF35" s="16"/>
       <c r="DG35" s="16"/>
+      <c r="DH35" s="16"/>
     </row>
-    <row r="36" spans="1:111" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:112" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="28" t="s">
         <v>16</v>
@@ -6470,11 +6766,11 @@
       <c r="E36" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="9" t="e">
+      <c r="F36" s="44"/>
+      <c r="G36" s="9" t="e">
         <f t="shared" si="63"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -6579,8 +6875,9 @@
       <c r="DE36" s="16"/>
       <c r="DF36" s="16"/>
       <c r="DG36" s="16"/>
+      <c r="DH36" s="16"/>
     </row>
-    <row r="37" spans="1:111" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:112" s="2" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>12</v>
       </c>
@@ -6588,11 +6885,11 @@
       <c r="C37" s="29"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
-      <c r="F37" s="9" t="str">
+      <c r="F37" s="45"/>
+      <c r="G37" s="9" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -6697,8 +6994,9 @@
       <c r="DE37" s="16"/>
       <c r="DF37" s="16"/>
       <c r="DG37" s="16"/>
+      <c r="DH37" s="16"/>
     </row>
-    <row r="38" spans="1:111" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:112" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>13</v>
       </c>
@@ -6708,11 +7006,11 @@
       <c r="C38" s="14"/>
       <c r="D38" s="46"/>
       <c r="E38" s="47"/>
-      <c r="F38" s="15" t="str">
+      <c r="F38" s="47"/>
+      <c r="G38" s="15" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6817,60 +7115,67 @@
       <c r="DE38" s="18"/>
       <c r="DF38" s="18"/>
       <c r="DG38" s="18"/>
+      <c r="DH38" s="18"/>
     </row>
-    <row r="40" spans="1:111" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:112" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="CU4:DA4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BS4:BY4"/>
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="BE4:BK4"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="CT4:CZ4"/>
-    <mergeCell ref="DA4:DG4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="CM4:CS4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:BJ26 BK5:DG6 BK8:DG26 G27:DG38">
-    <cfRule type="expression" dxfId="5" priority="37">
-      <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
+  <conditionalFormatting sqref="H5:BK26 BL5:DH6 BL8:DH26 H27:DH38">
+    <cfRule type="expression" dxfId="6" priority="40">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:BJ26 BK8:DG26 G27:DG38">
-    <cfRule type="expression" dxfId="4" priority="31">
-      <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
+  <conditionalFormatting sqref="H7:BK26 BL8:DH26 H27:DH38">
+    <cfRule type="expression" dxfId="5" priority="34">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:BJ15">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+  <conditionalFormatting sqref="H8:BK15">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:BZ23">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+  <conditionalFormatting sqref="H16:CA23">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:DG28">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+  <conditionalFormatting sqref="H24:DH28">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:DG34">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>AND(task_end&gt;=G$5,task_start&lt;H$5)</formula>
+  <conditionalFormatting sqref="H31:DH34">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="H9:DH15 H17:DH23 H25:DG28 H32:DH34">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(delay&gt;=H$5,task_end&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="D4" xr:uid="{446BA937-C5BD-4A9E-9AD4-ABD403170888}">
       <formula1>1</formula1>
     </dataValidation>
@@ -6885,6 +7190,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7172,36 +7506,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7220,24 +7545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Project_Planning.xlsx
+++ b/Documents/Project_Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9BA442-5E53-441B-8C9D-D72FF6474D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584DE48-E29C-4C6F-8366-C5FB8DE44742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="delay">ProjectSchedule!$F$10</definedName>
+    <definedName name="delay">ProjectSchedule!$F1</definedName>
     <definedName name="Display_Week">ProjectSchedule!$D$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Project_Start">ProjectSchedule!$D$3</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>DELAY</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1277,155 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1651,15 +1796,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="totalRow" dxfId="32"/>
-      <tableStyleElement type="firstColumn" dxfId="31"/>
-      <tableStyleElement type="lastColumn" dxfId="30"/>
-      <tableStyleElement type="firstRowStripe" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="totalRow" dxfId="46"/>
+      <tableStyleElement type="firstColumn" dxfId="45"/>
+      <tableStyleElement type="lastColumn" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2022,7 +2167,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3387,9 +3532,7 @@
       <c r="E9" s="35">
         <v>44983</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F9" s="35"/>
       <c r="G9" s="9">
         <f t="shared" si="63"/>
         <v>12</v>
@@ -3643,9 +3786,7 @@
       <c r="E11" s="35">
         <v>44982</v>
       </c>
-      <c r="F11" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F11" s="35"/>
       <c r="G11" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
@@ -3770,9 +3911,7 @@
       <c r="E12" s="35">
         <v>44982</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F12" s="35"/>
       <c r="G12" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
@@ -3897,9 +4036,7 @@
       <c r="E13" s="35">
         <v>44982</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F13" s="35"/>
       <c r="G13" s="9">
         <f t="shared" si="63"/>
         <v>11</v>
@@ -4025,9 +4162,7 @@
         <f>D14+4</f>
         <v>44983</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F14" s="35"/>
       <c r="G14" s="9">
         <f t="shared" si="63"/>
         <v>5</v>
@@ -4152,9 +4287,7 @@
       <c r="E15" s="35">
         <v>44985</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="F15" s="35"/>
       <c r="G15" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
@@ -4400,9 +4533,7 @@
       <c r="E17" s="38">
         <v>44991</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
@@ -4525,9 +4656,7 @@
       <c r="E18" s="38">
         <v>44997</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F18" s="38"/>
       <c r="G18" s="9">
         <f t="shared" si="63"/>
         <v>8</v>
@@ -4650,9 +4779,7 @@
       <c r="E19" s="38">
         <v>45004</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="9">
         <f t="shared" si="63"/>
         <v>10</v>
@@ -4776,9 +4903,7 @@
       <c r="E20" s="38">
         <v>45007</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="9">
         <f t="shared" si="63"/>
         <v>13</v>
@@ -4901,9 +5026,7 @@
       <c r="E21" s="38">
         <v>45009</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
@@ -5026,9 +5149,7 @@
       <c r="E22" s="38">
         <v>45016</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F22" s="38"/>
       <c r="G22" s="9"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -5148,9 +5269,7 @@
       <c r="E23" s="38">
         <v>45016</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F23" s="38"/>
       <c r="G23" s="9"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -5391,9 +5510,7 @@
       <c r="E25" s="41">
         <v>45016</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="F25" s="41"/>
       <c r="G25" s="9">
         <f t="shared" si="63"/>
         <v>27</v>
@@ -5516,9 +5633,7 @@
       <c r="E26" s="41">
         <v>45038</v>
       </c>
-      <c r="F26" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="F26" s="41"/>
       <c r="G26" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
@@ -5641,9 +5756,7 @@
       <c r="E27" s="41">
         <v>45038</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="F27" s="41"/>
       <c r="G27" s="9">
         <f t="shared" si="63"/>
         <v>6</v>
@@ -5766,9 +5879,7 @@
       <c r="E28" s="41">
         <v>45023</v>
       </c>
-      <c r="F28" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="F28" s="41"/>
       <c r="G28" s="9">
         <f t="shared" si="63"/>
         <v>7</v>
@@ -6264,9 +6375,7 @@
       <c r="E32" s="44">
         <v>45041</v>
       </c>
-      <c r="F32" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="F32" s="44"/>
       <c r="G32" s="9">
         <f t="shared" si="63"/>
         <v>54</v>
@@ -6391,9 +6500,7 @@
       <c r="E33" s="44">
         <v>45055</v>
       </c>
-      <c r="F33" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="F33" s="44"/>
       <c r="G33" s="9">
         <f t="shared" si="63"/>
         <v>17</v>
@@ -6518,9 +6625,7 @@
       <c r="E34" s="44">
         <v>45051</v>
       </c>
-      <c r="F34" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="F34" s="44"/>
       <c r="G34" s="9">
         <f t="shared" si="63"/>
         <v>4</v>
@@ -7171,7 +7276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:DH15 H17:DH23 H25:DG28 H32:DH34">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(delay&gt;=H$5,task_end&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
